--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R人物列表_Roles_MainStory_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R人物列表_Roles_MainStory_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C044AAF-10A0-4939-AD83-3F98A39A3168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947AEF68-C504-4E0F-B238-98AD183F5A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="420" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -226,10 +226,10 @@
     <t>Bruxa do Deserto</t>
   </si>
   <si>
-    <t>Ifrit Alto</t>
-  </si>
-  <si>
-    <t>Ifrit Baixo</t>
+    <t>Grande Ifrit</t>
+  </si>
+  <si>
+    <t>Pequeno Ifrit</t>
   </si>
   <si>
     <t>Homem Misterioso</t>
@@ -250,13 +250,13 @@
     <t>Homem-Besta Misterioso</t>
   </si>
   <si>
-    <t>Um Viajante com Boa Visão</t>
+    <t>Viajante de Olhos de Falcão</t>
   </si>
   <si>
     <t>Nasir, o Mago Branco</t>
   </si>
   <si>
-    <t>Soldado Akhal</t>
+    <t>Soldado dos Akhal</t>
   </si>
   <si>
     <t>Pintor (Utar)</t>
@@ -268,7 +268,7 @@
     <t>Pintor (Caçador de Monstros)</t>
   </si>
   <si>
-    <t>Transeunte Misterioso</t>
+    <t>Estranho de Passagem</t>
   </si>
   <si>
     <t>Mulher Bonita</t>
@@ -277,13 +277,13 @@
     <t>Homem Forte Careca</t>
   </si>
   <si>
-    <t>Homem Forte de Cabelos Curtos</t>
-  </si>
-  <si>
-    <t>Homem Forte de Cabelos Longos</t>
-  </si>
-  <si>
-    <t>Mestre Espadachim</t>
+    <t>Homem Forte de Cabelo Curto</t>
+  </si>
+  <si>
+    <t>Homem Forte de Cabelo Longo</t>
+  </si>
+  <si>
+    <t>Mestre da Espada</t>
   </si>
   <si>
     <t>Porco</t>
@@ -307,7 +307,10 @@
     <t>Soldado</t>
   </si>
   <si>
-    <t>Ifrit Feroz</t>
+    <t>Ifrit Furioso</t>
+  </si>
+  <si>
+    <t>Ifrit Selvagem</t>
   </si>
   <si>
     <t>Ali Adulto</t>
@@ -316,13 +319,13 @@
     <t>Hewez Adulto</t>
   </si>
   <si>
-    <t>Ifrit Fêmea</t>
-  </si>
-  <si>
-    <t>Jarah Adulto</t>
-  </si>
-  <si>
-    <t>Aldeão Zangado</t>
+    <t>Ifrit Feminino</t>
+  </si>
+  <si>
+    <t>Jarah Adulta</t>
+  </si>
+  <si>
+    <t>Aldeão Irritado</t>
   </si>
   <si>
     <t>Companheiro</t>
@@ -334,7 +337,7 @@
     <t>Chama Obsidiana</t>
   </si>
   <si>
-    <t>Ifrit Gordinho</t>
+    <t>Ifrit Rechonchudo</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,6 +593,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -944,15 +950,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
@@ -1441,7 +1445,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D37" s="4"/>
       <c r="F37" s="2"/>
@@ -1454,7 +1458,7 @@
         <v>55</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D38" s="4"/>
       <c r="F38" s="2"/>
@@ -1467,7 +1471,7 @@
         <v>56</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D39" s="4"/>
       <c r="F39" s="2"/>
@@ -1480,7 +1484,7 @@
         <v>57</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D40" s="4"/>
       <c r="F40" s="2"/>
@@ -1493,7 +1497,7 @@
         <v>58</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D41" s="4"/>
       <c r="F41" s="2"/>
@@ -1506,7 +1510,7 @@
         <v>59</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D42" s="4"/>
       <c r="F42" s="2"/>
@@ -1532,7 +1536,7 @@
         <v>63</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D44" s="4"/>
       <c r="F44" s="2"/>
@@ -1545,7 +1549,7 @@
         <v>63</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D45" s="4"/>
       <c r="F45" s="2"/>
@@ -1558,7 +1562,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D46" s="4"/>
       <c r="F46" s="2"/>
@@ -1570,8 +1574,8 @@
       <c r="B47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="28" t="s">
-        <v>104</v>
+      <c r="C47" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="D47" s="4"/>
       <c r="F47" s="2"/>
